--- a/Excel Intermediate Skills I/Week 4/Practice Challenge/C2 W4 Practice Challenge.xlsx
+++ b/Excel Intermediate Skills I/Week 4/Practice Challenge/C2 W4 Practice Challenge.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/Directories/Excel Exercises/Excel Intermediate Skills I/Week 4/Practice Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF9CFF-09F3-1C43-9426-F02BDBF1D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719D58F-53CD-6047-8D19-AC23373713F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="537" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="38400" windowHeight="21100" tabRatio="537" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions " sheetId="14" r:id="rId1"/>
@@ -3930,6 +3930,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3937,19 +3967,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3974,24 +3992,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4152,6 +4152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A98A-E546-9AC3-1145C178C35D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4171,6 +4176,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A98A-E546-9AC3-1145C178C35D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4190,6 +4200,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A98A-E546-9AC3-1145C178C35D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4209,6 +4224,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A98A-E546-9AC3-1145C178C35D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4536,6 +4556,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6565-6546-904F-48735E0589EC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4555,6 +4580,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6565-6546-904F-48735E0589EC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4574,6 +4604,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6565-6546-904F-48735E0589EC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4593,6 +4628,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6565-6546-904F-48735E0589EC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6180,7 +6220,7 @@
             <c:numRef>
               <c:f>[1]Dashboard!$E$34:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2033100</c:v>
@@ -6328,7 +6368,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12201,7 +12241,7 @@
         <v>13500</v>
       </c>
       <c r="R8" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" ref="R8:R71" si="0">SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
         <v>27000</v>
       </c>
     </row>
@@ -12252,7 +12292,7 @@
         <v>10800</v>
       </c>
       <c r="R9" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -12303,7 +12343,7 @@
         <v>10800</v>
       </c>
       <c r="R10" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
     </row>
@@ -12354,7 +12394,7 @@
         <v>13500</v>
       </c>
       <c r="R11" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -12405,7 +12445,7 @@
         <v>5400</v>
       </c>
       <c r="R12" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -12456,7 +12496,7 @@
         <v>10800</v>
       </c>
       <c r="R13" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -12507,7 +12547,7 @@
         <v>8100</v>
       </c>
       <c r="R14" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -12558,7 +12598,7 @@
         <v>8100</v>
       </c>
       <c r="R15" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -12609,7 +12649,7 @@
         <v>8100</v>
       </c>
       <c r="R16" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -12660,7 +12700,7 @@
         <v>10800</v>
       </c>
       <c r="R17" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -12711,7 +12751,7 @@
         <v>10800</v>
       </c>
       <c r="R18" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -12762,7 +12802,7 @@
         <v>13500</v>
       </c>
       <c r="R19" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -12813,7 +12853,7 @@
         <v>10800</v>
       </c>
       <c r="R20" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -12864,7 +12904,7 @@
         <v>8100</v>
       </c>
       <c r="R21" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -12915,7 +12955,7 @@
         <v>13500</v>
       </c>
       <c r="R22" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>35100</v>
       </c>
     </row>
@@ -12966,7 +13006,7 @@
         <v>10800</v>
       </c>
       <c r="R23" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -13017,7 +13057,7 @@
         <v>10800</v>
       </c>
       <c r="R24" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -13068,7 +13108,7 @@
         <v>5400</v>
       </c>
       <c r="R25" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -13119,7 +13159,7 @@
         <v>5400</v>
       </c>
       <c r="R26" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -13170,7 +13210,7 @@
         <v>5400</v>
       </c>
       <c r="R27" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -13221,7 +13261,7 @@
         <v>8100</v>
       </c>
       <c r="R28" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -13270,7 +13310,7 @@
         <v>10800</v>
       </c>
       <c r="R29" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -13321,7 +13361,7 @@
         <v>8100</v>
       </c>
       <c r="R30" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
     </row>
@@ -13372,7 +13412,7 @@
         <v>8100</v>
       </c>
       <c r="R31" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -13423,7 +13463,7 @@
         <v>13500</v>
       </c>
       <c r="R32" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>37800</v>
       </c>
     </row>
@@ -13474,7 +13514,7 @@
         <v>10800</v>
       </c>
       <c r="R33" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -13525,7 +13565,7 @@
         <v>8100</v>
       </c>
       <c r="R34" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
     </row>
@@ -13576,7 +13616,7 @@
         <v>8100</v>
       </c>
       <c r="R35" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -13627,7 +13667,7 @@
         <v>8100</v>
       </c>
       <c r="R36" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -13678,7 +13718,7 @@
         <v>10800</v>
       </c>
       <c r="R37" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -13729,7 +13769,7 @@
         <v>10800</v>
       </c>
       <c r="R38" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -13780,7 +13820,7 @@
         <v>13500</v>
       </c>
       <c r="R39" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -13831,7 +13871,7 @@
         <v>13500</v>
       </c>
       <c r="R40" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -13882,7 +13922,7 @@
         <v>10800</v>
       </c>
       <c r="R41" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -13933,7 +13973,7 @@
         <v>13500</v>
       </c>
       <c r="R42" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -13984,7 +14024,7 @@
         <v>5400</v>
       </c>
       <c r="R43" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -14035,7 +14075,7 @@
         <v>5400</v>
       </c>
       <c r="R44" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -14086,7 +14126,7 @@
         <v>5400</v>
       </c>
       <c r="R45" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -14135,7 +14175,7 @@
         <v>5400</v>
       </c>
       <c r="R46" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -14186,7 +14226,7 @@
         <v>13500</v>
       </c>
       <c r="R47" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
     </row>
@@ -14237,7 +14277,7 @@
         <v>8100</v>
       </c>
       <c r="R48" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -14288,7 +14328,7 @@
         <v>8100</v>
       </c>
       <c r="R49" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -14339,7 +14379,7 @@
         <v>8100</v>
       </c>
       <c r="R50" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -14390,7 +14430,7 @@
         <v>5400</v>
       </c>
       <c r="R51" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -14441,7 +14481,7 @@
         <v>10800</v>
       </c>
       <c r="R52" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -14492,7 +14532,7 @@
         <v>8100</v>
       </c>
       <c r="R53" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
     </row>
@@ -14543,7 +14583,7 @@
         <v>10800</v>
       </c>
       <c r="R54" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -14592,7 +14632,7 @@
         <v>8100</v>
       </c>
       <c r="R55" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -14643,7 +14683,7 @@
         <v>13500</v>
       </c>
       <c r="R56" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>37800</v>
       </c>
     </row>
@@ -14694,7 +14734,7 @@
         <v>10800</v>
       </c>
       <c r="R57" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -14745,7 +14785,7 @@
         <v>5400</v>
       </c>
       <c r="R58" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -14796,7 +14836,7 @@
         <v>5400</v>
       </c>
       <c r="R59" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
     </row>
@@ -14847,7 +14887,7 @@
         <v>8100</v>
       </c>
       <c r="R60" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -14898,7 +14938,7 @@
         <v>8100</v>
       </c>
       <c r="R61" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>29700</v>
       </c>
     </row>
@@ -14949,7 +14989,7 @@
         <v>5400</v>
       </c>
       <c r="R62" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -15000,7 +15040,7 @@
         <v>10800</v>
       </c>
       <c r="R63" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -15051,7 +15091,7 @@
         <v>5400</v>
       </c>
       <c r="R64" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
@@ -15102,7 +15142,7 @@
         <v>13500</v>
       </c>
       <c r="R65" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>35100</v>
       </c>
     </row>
@@ -15153,7 +15193,7 @@
         <v>10800</v>
       </c>
       <c r="R66" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -15204,7 +15244,7 @@
         <v>10800</v>
       </c>
       <c r="R67" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -15255,7 +15295,7 @@
         <v>8100</v>
       </c>
       <c r="R68" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -15306,7 +15346,7 @@
         <v>10800</v>
       </c>
       <c r="R69" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>24300</v>
       </c>
     </row>
@@ -15357,7 +15397,7 @@
         <v>8100</v>
       </c>
       <c r="R70" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
     </row>
@@ -15408,7 +15448,7 @@
         <v>13500</v>
       </c>
       <c r="R71" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
@@ -15459,7 +15499,7 @@
         <v>10800</v>
       </c>
       <c r="R72" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" ref="R72:R135" si="1">SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
         <v>27000</v>
       </c>
     </row>
@@ -15510,7 +15550,7 @@
         <v>5400</v>
       </c>
       <c r="R73" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -15561,7 +15601,7 @@
         <v>5400</v>
       </c>
       <c r="R74" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -15612,7 +15652,7 @@
         <v>8100</v>
       </c>
       <c r="R75" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -15663,7 +15703,7 @@
         <v>13500</v>
       </c>
       <c r="R76" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -15714,7 +15754,7 @@
         <v>8100</v>
       </c>
       <c r="R77" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -15765,7 +15805,7 @@
         <v>8100</v>
       </c>
       <c r="R78" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
     </row>
@@ -15816,7 +15856,7 @@
         <v>5400</v>
       </c>
       <c r="R79" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -15867,7 +15907,7 @@
         <v>10800</v>
       </c>
       <c r="R80" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -15918,7 +15958,7 @@
         <v>8100</v>
       </c>
       <c r="R81" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
     </row>
@@ -15969,7 +16009,7 @@
         <v>13500</v>
       </c>
       <c r="R82" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>37800</v>
       </c>
     </row>
@@ -16020,7 +16060,7 @@
         <v>10800</v>
       </c>
       <c r="R83" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -16071,7 +16111,7 @@
         <v>13500</v>
       </c>
       <c r="R84" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -16122,7 +16162,7 @@
         <v>8100</v>
       </c>
       <c r="R85" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -16173,7 +16213,7 @@
         <v>5400</v>
       </c>
       <c r="R86" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -16224,7 +16264,7 @@
         <v>13500</v>
       </c>
       <c r="R87" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -16275,7 +16315,7 @@
         <v>13500</v>
       </c>
       <c r="R88" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -16326,7 +16366,7 @@
         <v>13500</v>
       </c>
       <c r="R89" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -16377,7 +16417,7 @@
         <v>10800</v>
       </c>
       <c r="R90" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -16428,7 +16468,7 @@
         <v>8100</v>
       </c>
       <c r="R91" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -16479,7 +16519,7 @@
         <v>5400</v>
       </c>
       <c r="R92" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
     </row>
@@ -16530,7 +16570,7 @@
         <v>10800</v>
       </c>
       <c r="R93" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -16581,7 +16621,7 @@
         <v>13500</v>
       </c>
       <c r="R94" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -16632,7 +16672,7 @@
         <v>13500</v>
       </c>
       <c r="R95" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -16683,7 +16723,7 @@
         <v>13500</v>
       </c>
       <c r="R96" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -16734,7 +16774,7 @@
         <v>8100</v>
       </c>
       <c r="R97" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -16785,7 +16825,7 @@
         <v>13500</v>
       </c>
       <c r="R98" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -16836,7 +16876,7 @@
         <v>5400</v>
       </c>
       <c r="R99" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -16887,7 +16927,7 @@
         <v>8100</v>
       </c>
       <c r="R100" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -16938,7 +16978,7 @@
         <v>13500</v>
       </c>
       <c r="R101" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>35100</v>
       </c>
     </row>
@@ -16989,7 +17029,7 @@
         <v>13500</v>
       </c>
       <c r="R102" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>35100</v>
       </c>
     </row>
@@ -17040,7 +17080,7 @@
         <v>5400</v>
       </c>
       <c r="R103" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -17091,7 +17131,7 @@
         <v>5400</v>
       </c>
       <c r="R104" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17142,7 +17182,7 @@
         <v>13500</v>
       </c>
       <c r="R105" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>37800</v>
       </c>
     </row>
@@ -17193,7 +17233,7 @@
         <v>13500</v>
       </c>
       <c r="R106" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>35100</v>
       </c>
     </row>
@@ -17244,7 +17284,7 @@
         <v>10800</v>
       </c>
       <c r="R107" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -17295,7 +17335,7 @@
         <v>10800</v>
       </c>
       <c r="R108" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -17346,7 +17386,7 @@
         <v>13500</v>
       </c>
       <c r="R109" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17397,7 +17437,7 @@
         <v>5400</v>
       </c>
       <c r="R110" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17448,7 +17488,7 @@
         <v>8100</v>
       </c>
       <c r="R111" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17499,7 +17539,7 @@
         <v>5400</v>
       </c>
       <c r="R112" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17550,7 +17590,7 @@
         <v>8100</v>
       </c>
       <c r="R113" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -17601,7 +17641,7 @@
         <v>13500</v>
       </c>
       <c r="R114" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -17652,7 +17692,7 @@
         <v>8100</v>
       </c>
       <c r="R115" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -17703,7 +17743,7 @@
         <v>8100</v>
       </c>
       <c r="R116" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17754,7 +17794,7 @@
         <v>10800</v>
       </c>
       <c r="R117" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17805,7 +17845,7 @@
         <v>5400</v>
       </c>
       <c r="R118" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
@@ -17856,7 +17896,7 @@
         <v>8100</v>
       </c>
       <c r="R119" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -17907,7 +17947,7 @@
         <v>5400</v>
       </c>
       <c r="R120" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -17958,7 +17998,7 @@
         <v>8100</v>
       </c>
       <c r="R121" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -18009,7 +18049,7 @@
         <v>8100</v>
       </c>
       <c r="R122" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -18060,7 +18100,7 @@
         <v>5400</v>
       </c>
       <c r="R123" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -18111,7 +18151,7 @@
         <v>10800</v>
       </c>
       <c r="R124" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -18162,7 +18202,7 @@
         <v>8100</v>
       </c>
       <c r="R125" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -18213,7 +18253,7 @@
         <v>10800</v>
       </c>
       <c r="R126" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -18264,7 +18304,7 @@
         <v>13500</v>
       </c>
       <c r="R127" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -18315,7 +18355,7 @@
         <v>13500</v>
       </c>
       <c r="R128" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
     </row>
@@ -18366,7 +18406,7 @@
         <v>13500</v>
       </c>
       <c r="R129" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -18417,7 +18457,7 @@
         <v>10800</v>
       </c>
       <c r="R130" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -18468,7 +18508,7 @@
         <v>13500</v>
       </c>
       <c r="R131" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -18519,7 +18559,7 @@
         <v>10800</v>
       </c>
       <c r="R132" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -18570,7 +18610,7 @@
         <v>5400</v>
       </c>
       <c r="R133" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
     </row>
@@ -18621,7 +18661,7 @@
         <v>5400</v>
       </c>
       <c r="R134" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>29700</v>
       </c>
     </row>
@@ -18672,7 +18712,7 @@
         <v>13500</v>
       </c>
       <c r="R135" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
     </row>
@@ -18723,7 +18763,7 @@
         <v>8100</v>
       </c>
       <c r="R136" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" ref="R136:R199" si="2">SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
         <v>18900</v>
       </c>
     </row>
@@ -18774,7 +18814,7 @@
         <v>8100</v>
       </c>
       <c r="R137" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -18825,7 +18865,7 @@
         <v>5400</v>
       </c>
       <c r="R138" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -18876,7 +18916,7 @@
         <v>5400</v>
       </c>
       <c r="R139" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -18927,7 +18967,7 @@
         <v>13500</v>
       </c>
       <c r="R140" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -18978,7 +19018,7 @@
         <v>5400</v>
       </c>
       <c r="R141" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -19029,7 +19069,7 @@
         <v>10800</v>
       </c>
       <c r="R142" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -19080,7 +19120,7 @@
         <v>13500</v>
       </c>
       <c r="R143" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -19131,7 +19171,7 @@
         <v>5400</v>
       </c>
       <c r="R144" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>10800</v>
       </c>
     </row>
@@ -19182,7 +19222,7 @@
         <v>5400</v>
       </c>
       <c r="R145" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -19233,7 +19273,7 @@
         <v>13500</v>
       </c>
       <c r="R146" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>37800</v>
       </c>
     </row>
@@ -19284,7 +19324,7 @@
         <v>8100</v>
       </c>
       <c r="R147" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -19335,7 +19375,7 @@
         <v>10800</v>
       </c>
       <c r="R148" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -19386,7 +19426,7 @@
         <v>8100</v>
       </c>
       <c r="R149" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -19437,7 +19477,7 @@
         <v>10800</v>
       </c>
       <c r="R150" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -19488,7 +19528,7 @@
         <v>8100</v>
       </c>
       <c r="R151" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -19539,7 +19579,7 @@
         <v>8100</v>
       </c>
       <c r="R152" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -19590,7 +19630,7 @@
         <v>8100</v>
       </c>
       <c r="R153" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -19641,7 +19681,7 @@
         <v>8100</v>
       </c>
       <c r="R154" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -19692,7 +19732,7 @@
         <v>5400</v>
       </c>
       <c r="R155" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -19743,7 +19783,7 @@
         <v>13500</v>
       </c>
       <c r="R156" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -19794,7 +19834,7 @@
         <v>5400</v>
       </c>
       <c r="R157" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -19845,7 +19885,7 @@
         <v>8100</v>
       </c>
       <c r="R158" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -19896,7 +19936,7 @@
         <v>5400</v>
       </c>
       <c r="R159" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -19947,7 +19987,7 @@
         <v>10800</v>
       </c>
       <c r="R160" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -19998,7 +20038,7 @@
         <v>13500</v>
       </c>
       <c r="R161" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -20049,7 +20089,7 @@
         <v>8100</v>
       </c>
       <c r="R162" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -20100,7 +20140,7 @@
         <v>5400</v>
       </c>
       <c r="R163" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20151,7 +20191,7 @@
         <v>13500</v>
       </c>
       <c r="R164" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -20202,7 +20242,7 @@
         <v>8100</v>
       </c>
       <c r="R165" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -20253,7 +20293,7 @@
         <v>10800</v>
       </c>
       <c r="R166" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20304,7 +20344,7 @@
         <v>13500</v>
       </c>
       <c r="R167" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20355,7 +20395,7 @@
         <v>10800</v>
       </c>
       <c r="R168" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -20406,7 +20446,7 @@
         <v>5400</v>
       </c>
       <c r="R169" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -20457,7 +20497,7 @@
         <v>8100</v>
       </c>
       <c r="R170" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20508,7 +20548,7 @@
         <v>8100</v>
       </c>
       <c r="R171" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20559,7 +20599,7 @@
         <v>5400</v>
       </c>
       <c r="R172" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20610,7 +20650,7 @@
         <v>13500</v>
       </c>
       <c r="R173" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -20661,7 +20701,7 @@
         <v>5400</v>
       </c>
       <c r="R174" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>10800</v>
       </c>
     </row>
@@ -20712,7 +20752,7 @@
         <v>5400</v>
       </c>
       <c r="R175" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -20763,7 +20803,7 @@
         <v>13500</v>
       </c>
       <c r="R176" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -20814,7 +20854,7 @@
         <v>8100</v>
       </c>
       <c r="R177" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -20865,7 +20905,7 @@
         <v>10800</v>
       </c>
       <c r="R178" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -20916,7 +20956,7 @@
         <v>10800</v>
       </c>
       <c r="R179" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -20967,7 +21007,7 @@
         <v>5400</v>
       </c>
       <c r="R180" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -21018,7 +21058,7 @@
         <v>5400</v>
       </c>
       <c r="R181" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -21069,7 +21109,7 @@
         <v>8100</v>
       </c>
       <c r="R182" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -21120,7 +21160,7 @@
         <v>5400</v>
       </c>
       <c r="R183" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -21171,7 +21211,7 @@
         <v>10800</v>
       </c>
       <c r="R184" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -21222,7 +21262,7 @@
         <v>8100</v>
       </c>
       <c r="R185" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -21273,7 +21313,7 @@
         <v>8100</v>
       </c>
       <c r="R186" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -21324,7 +21364,7 @@
         <v>8100</v>
       </c>
       <c r="R187" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -21375,7 +21415,7 @@
         <v>5400</v>
       </c>
       <c r="R188" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
@@ -21426,7 +21466,7 @@
         <v>13500</v>
       </c>
       <c r="R189" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -21477,7 +21517,7 @@
         <v>10800</v>
       </c>
       <c r="R190" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
     </row>
@@ -21528,7 +21568,7 @@
         <v>5400</v>
       </c>
       <c r="R191" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>13500</v>
       </c>
     </row>
@@ -21579,7 +21619,7 @@
         <v>8100</v>
       </c>
       <c r="R192" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -21630,7 +21670,7 @@
         <v>10800</v>
       </c>
       <c r="R193" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -21681,7 +21721,7 @@
         <v>5400</v>
       </c>
       <c r="R194" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -21732,7 +21772,7 @@
         <v>10800</v>
       </c>
       <c r="R195" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -21783,7 +21823,7 @@
         <v>13500</v>
       </c>
       <c r="R196" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
     </row>
@@ -21834,7 +21874,7 @@
         <v>13500</v>
       </c>
       <c r="R197" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -21885,7 +21925,7 @@
         <v>10800</v>
       </c>
       <c r="R198" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>29700</v>
       </c>
     </row>
@@ -21936,7 +21976,7 @@
         <v>10800</v>
       </c>
       <c r="R199" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
     </row>
@@ -21987,7 +22027,7 @@
         <v>5400</v>
       </c>
       <c r="R200" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" ref="R200:R255" si="3">SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
         <v>16200</v>
       </c>
     </row>
@@ -22038,7 +22078,7 @@
         <v>10800</v>
       </c>
       <c r="R201" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -22089,7 +22129,7 @@
         <v>5400</v>
       </c>
       <c r="R202" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22140,7 +22180,7 @@
         <v>8100</v>
       </c>
       <c r="R203" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -22191,7 +22231,7 @@
         <v>5400</v>
       </c>
       <c r="R204" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -22242,7 +22282,7 @@
         <v>8100</v>
       </c>
       <c r="R205" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -22293,7 +22333,7 @@
         <v>8100</v>
       </c>
       <c r="R206" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22344,7 +22384,7 @@
         <v>13500</v>
       </c>
       <c r="R207" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -22395,7 +22435,7 @@
         <v>5400</v>
       </c>
       <c r="R208" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22446,7 +22486,7 @@
         <v>13500</v>
       </c>
       <c r="R209" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -22497,7 +22537,7 @@
         <v>8100</v>
       </c>
       <c r="R210" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -22548,7 +22588,7 @@
         <v>8100</v>
       </c>
       <c r="R211" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22599,7 +22639,7 @@
         <v>5400</v>
       </c>
       <c r="R212" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -22650,7 +22690,7 @@
         <v>10800</v>
       </c>
       <c r="R213" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -22701,7 +22741,7 @@
         <v>5400</v>
       </c>
       <c r="R214" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
     </row>
@@ -22752,7 +22792,7 @@
         <v>10800</v>
       </c>
       <c r="R215" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -22803,7 +22843,7 @@
         <v>8100</v>
       </c>
       <c r="R216" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22854,7 +22894,7 @@
         <v>13500</v>
       </c>
       <c r="R217" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -22905,7 +22945,7 @@
         <v>5400</v>
       </c>
       <c r="R218" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -22956,7 +22996,7 @@
         <v>8100</v>
       </c>
       <c r="R219" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -23007,7 +23047,7 @@
         <v>13500</v>
       </c>
       <c r="R220" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -23058,7 +23098,7 @@
         <v>8100</v>
       </c>
       <c r="R221" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -23109,7 +23149,7 @@
         <v>8100</v>
       </c>
       <c r="R222" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>16200</v>
       </c>
     </row>
@@ -23160,7 +23200,7 @@
         <v>13500</v>
       </c>
       <c r="R223" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>35100</v>
       </c>
     </row>
@@ -23211,7 +23251,7 @@
         <v>5400</v>
       </c>
       <c r="R224" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -23262,7 +23302,7 @@
         <v>13500</v>
       </c>
       <c r="R225" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -23313,7 +23353,7 @@
         <v>8100</v>
       </c>
       <c r="R226" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -23364,7 +23404,7 @@
         <v>10800</v>
       </c>
       <c r="R227" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -23415,7 +23455,7 @@
         <v>5400</v>
       </c>
       <c r="R228" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>10800</v>
       </c>
     </row>
@@ -23466,7 +23506,7 @@
         <v>8100</v>
       </c>
       <c r="R229" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -23517,7 +23557,7 @@
         <v>13500</v>
       </c>
       <c r="R230" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -23568,7 +23608,7 @@
         <v>13500</v>
       </c>
       <c r="R231" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -23619,7 +23659,7 @@
         <v>13500</v>
       </c>
       <c r="R232" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -23670,7 +23710,7 @@
         <v>5400</v>
       </c>
       <c r="R233" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -23721,7 +23761,7 @@
         <v>5400</v>
       </c>
       <c r="R234" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -23772,7 +23812,7 @@
         <v>8100</v>
       </c>
       <c r="R235" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>16200</v>
       </c>
     </row>
@@ -23823,7 +23863,7 @@
         <v>5400</v>
       </c>
       <c r="R236" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -23874,7 +23914,7 @@
         <v>10800</v>
       </c>
       <c r="R237" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -23925,7 +23965,7 @@
         <v>10800</v>
       </c>
       <c r="R238" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -23976,7 +24016,7 @@
         <v>13500</v>
       </c>
       <c r="R239" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>35100</v>
       </c>
     </row>
@@ -24027,7 +24067,7 @@
         <v>5400</v>
       </c>
       <c r="R240" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>16200</v>
       </c>
     </row>
@@ -24078,7 +24118,7 @@
         <v>8100</v>
       </c>
       <c r="R241" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -24129,7 +24169,7 @@
         <v>13500</v>
       </c>
       <c r="R242" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -24180,7 +24220,7 @@
         <v>5400</v>
       </c>
       <c r="R243" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>13500</v>
       </c>
     </row>
@@ -24231,7 +24271,7 @@
         <v>5400</v>
       </c>
       <c r="R244" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -24282,7 +24322,7 @@
         <v>10800</v>
       </c>
       <c r="R245" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -24333,7 +24373,7 @@
         <v>8100</v>
       </c>
       <c r="R246" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -24384,7 +24424,7 @@
         <v>8100</v>
       </c>
       <c r="R247" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -24435,7 +24475,7 @@
         <v>5400</v>
       </c>
       <c r="R248" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -24486,7 +24526,7 @@
         <v>5400</v>
       </c>
       <c r="R249" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -24537,7 +24577,7 @@
         <v>8100</v>
       </c>
       <c r="R250" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
     </row>
@@ -24588,7 +24628,7 @@
         <v>5400</v>
       </c>
       <c r="R251" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
@@ -24639,7 +24679,7 @@
         <v>8100</v>
       </c>
       <c r="R252" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
     </row>
@@ -24690,7 +24730,7 @@
         <v>10800</v>
       </c>
       <c r="R253" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
     </row>
@@ -24741,7 +24781,7 @@
         <v>13500</v>
       </c>
       <c r="R254" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
     </row>
@@ -24792,7 +24832,7 @@
         <v>5400</v>
       </c>
       <c r="R255" s="45">
-        <f>SUM(_xlfn.SINGLE(Payment_Semester_1),_xlfn.SINGLE(Payment_Semester_2),_xlfn.SINGLE(Payment_Semester_3))</f>
+        <f t="shared" si="3"/>
         <v>16200</v>
       </c>
     </row>
@@ -24836,8 +24876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -24854,52 +24894,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="I1" s="71" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="14"/>
       <c r="D4" s="16"/>
       <c r="E4" s="7"/>
@@ -24938,24 +24978,24 @@
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="66"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="19">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="19">
       <c r="A13" s="15" t="s">
@@ -24985,11 +25025,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="73" t="s">
         <v>589</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="28" t="s">
         <v>275</v>
       </c>
@@ -24999,11 +25039,11 @@
       <c r="F17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="73" t="s">
         <v>590</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="28" t="s">
         <v>275</v>
       </c>
@@ -25015,11 +25055,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="69" t="s">
         <v>551</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="20">
         <f>COUNTIFS(Number_of_units__Semester_1,"&gt;4")</f>
         <v>47</v>
@@ -25032,11 +25072,11 @@
         <f>COUNTIFS(Number_of_units__Semester_3,"&gt;4")</f>
         <v>57</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="20">
         <f>COUNTIFS(Average_mark_Semester_1,"&lt;50")</f>
         <v>36</v>
@@ -25051,11 +25091,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="20">
         <f>COUNTIFS(Number_of_units__Semester_1,"1")</f>
         <v>39</v>
@@ -25068,11 +25108,11 @@
         <f>COUNTIFS(Number_of_units__Semester_3,"1")</f>
         <v>0</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="20">
         <f>COUNTIFS(Average_mark_Semester_1,"&lt;50",Course,"Accounting")</f>
         <v>9</v>
@@ -25110,32 +25150,32 @@
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="18"/>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="84" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="82" t="s">
         <v>591</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="G23" s="67" t="s">
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="G23" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="79"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="34">
       <c r="A25" s="44" t="s">
@@ -25167,15 +25207,15 @@
         <v>2008800</v>
       </c>
       <c r="C26" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A26,Course,C$25)</f>
+        <f t="shared" ref="C26:E28" si="0">SUMIFS(Total_Payment,Campus,$A26,Course,C$25)</f>
         <v>572400</v>
       </c>
       <c r="D26" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A26,Course,D$25)</f>
+        <f t="shared" si="0"/>
         <v>963900</v>
       </c>
       <c r="E26" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A26,Course,E$25)</f>
+        <f t="shared" si="0"/>
         <v>472500</v>
       </c>
       <c r="G26" s="7"/>
@@ -25189,15 +25229,15 @@
         <v>2983500</v>
       </c>
       <c r="C27" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A27,Course,C$25)</f>
+        <f t="shared" si="0"/>
         <v>945000</v>
       </c>
       <c r="D27" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A27,Course,D$25)</f>
+        <f t="shared" si="0"/>
         <v>1358100</v>
       </c>
       <c r="E27" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A27,Course,E$25)</f>
+        <f t="shared" si="0"/>
         <v>680400</v>
       </c>
     </row>
@@ -25210,15 +25250,15 @@
         <v>1028700</v>
       </c>
       <c r="C28" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A28,Course,C$25)</f>
+        <f t="shared" si="0"/>
         <v>318600</v>
       </c>
       <c r="D28" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A28,Course,D$25)</f>
+        <f t="shared" si="0"/>
         <v>442800</v>
       </c>
       <c r="E28" s="21">
-        <f>SUMIFS(Total_Payment,Campus,$A28,Course,E$25)</f>
+        <f t="shared" si="0"/>
         <v>267300</v>
       </c>
     </row>
@@ -25230,34 +25270,34 @@
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="68" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="78" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="76" t="s">
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="82" t="s">
         <v>581</v>
       </c>
-      <c r="F31" s="77"/>
+      <c r="F31" s="83"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
@@ -25358,65 +25398,75 @@
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="75" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="76"/>
       <c r="B39" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="66"/>
+      <c r="A40" s="76"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="66"/>
+      <c r="A41" s="76"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="66"/>
+      <c r="A42" s="76"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="77" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="68"/>
+      <c r="A46" s="77"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="68"/>
+      <c r="A47" s="77"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="68"/>
+      <c r="A48" s="77"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="68"/>
+      <c r="A49" s="77"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="68"/>
+      <c r="A50" s="77"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="68"/>
+      <c r="A51" s="77"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="68"/>
+      <c r="A52" s="77"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="68"/>
+      <c r="A53" s="77"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="68"/>
+      <c r="A54" s="77"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="68"/>
+      <c r="A55" s="77"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E6:E72">
     <sortCondition ref="E6"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="G23:K24"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I1:L3"/>
@@ -25428,16 +25478,6 @@
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="D1:G3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="G23:K24"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
